--- a/src/main/resources/initialDataFiles/prescriptionScheduleEntries.xlsx
+++ b/src/main/resources/initialDataFiles/prescriptionScheduleEntries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catha\Documents\Health\ADHD\medTrackerInitialData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Java\SpringBootProjects\MedTracker\src\main\resources\initialDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5753732-D313-47DB-ABC4-A600738048B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5ED294-1694-49EC-BA57-0FADE76E9139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3010" yWindow="-110" windowWidth="35500" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6320" yWindow="1970" windowWidth="26460" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,13 @@
     <t>DAYSTAGE</t>
   </si>
   <si>
-    <t>BREAKFAST</t>
+    <t>MORNING</t>
   </si>
   <si>
-    <t>LUNCH</t>
+    <t>MIDDAY</t>
   </si>
   <si>
-    <t>DINNER</t>
+    <t>AFTERNOON</t>
   </si>
 </sst>
 </file>
@@ -361,7 +361,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/main/resources/initialDataFiles/prescriptionScheduleEntries.xlsx
+++ b/src/main/resources/initialDataFiles/prescriptionScheduleEntries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Java\SpringBootProjects\MedTracker\src\main\resources\initialDataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catha\Documents\Health\ADHD\medTrackerInitialData\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5ED294-1694-49EC-BA57-0FADE76E9139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BD99B7-11A6-4747-85DE-A59B7FF938DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="1970" windowWidth="26460" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10530" yWindow="4760" windowWidth="26460" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>Prescription</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>MIDDAY</t>
-  </si>
-  <si>
-    <t>AFTERNOON</t>
   </si>
 </sst>
 </file>
@@ -358,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -396,10 +393,50 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
